--- a/PlanSave/plansave.xlsx
+++ b/PlanSave/plansave.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\PlanSave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B72958-8C7A-4206-8784-DA8F605716A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41501A3-AA68-441A-B5E3-0E5ABAC932AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,182 +337,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4169167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4169172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4169154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4169156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4169159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4169155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4169162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4169164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4169173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4169166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4169168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4169177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4169178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4169179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4169174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4169180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4169181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4169182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4169183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4169184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4169185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4169163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4169153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4169157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4169175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>4169176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>4169165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4169169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>4169152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>4169170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>4169171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4169158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>4169160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>4169161</v>
+        <v>21711</v>
       </c>
     </row>
   </sheetData>

--- a/PlanSave/plansave.xlsx
+++ b/PlanSave/plansave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\PlanSave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41501A3-AA68-441A-B5E3-0E5ABAC932AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F84EC-38F4-44B3-9536-A66BE001FD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,20 +337,1611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection sqref="A1:A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>21711</v>
+        <v>4584248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4584250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4584247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4531167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4531168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4531165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4531166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4583127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4358549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4583138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4583136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4583139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4358719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4358720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4358717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4358718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4358550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4358551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4358552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4555775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4555763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4555762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4555764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4555765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4555774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4555777</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4555776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4556075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4358070</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4358071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4556076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4556073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4556074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4584249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4597857</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5121367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5121343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4562620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5121344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5121345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4562617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4562618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4562619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5121346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5121357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5121332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5121333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5121334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4562634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4562635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5121370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5121379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5121391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5121392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5121393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5121381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5121406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5121428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5121429</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5121439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5121427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5121331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5121355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5121415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5121440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5121441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5121451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5121452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5121356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5121358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5121369</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5121368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5121380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5121382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5121394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5121403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5121404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5121405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5121442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5121416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5121417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5121418</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5121430</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4597730</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4570127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4570128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4570129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4597731</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4597732</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4597733</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4597950</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4597854</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4597855</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4597856</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4597890</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4597891</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4597892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4597951</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4597952</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4597902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4597926</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4597927</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4597928</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4597929</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4597903</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4564762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4597914</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4597915</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4597916</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4597917</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4542366</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4542309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4564750</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4564751</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5105136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5105121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5105122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>4597866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>4597867</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4597868</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4597869</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4564749</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>4564748</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5105135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>4542308</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5121454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5121453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5095531</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5095528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5095529</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5095530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5105123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5105124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5105133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5105134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>4588669</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>4588670</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>4588668</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>4588671</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>4542306</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>4542307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4562633</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>4570130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4542367</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>4542368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>4542369</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>4542548</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>4562636</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5110635</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>4542427</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>4542549</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4542546</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>4542547</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4542426</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>4542429</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>4542486</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>4542607</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>4542609</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>4542487</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>4542428</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>4542488</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>4542489</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4542608</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4542606</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4597893</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>5097656</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>5097657</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>5097658</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>5097659</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4583125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>4583126</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4597878</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4597879</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>4597880</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4597881</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4583137</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>4583124</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>4564761</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>4564760</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4564763</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4597904</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>4597905</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>5126742</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>5126716</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>5126717</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>5126727</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>5126728</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>5126739</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>5126740</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>5126741</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>5127803</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4597938</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4597939</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>4597940</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>4597941</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>5127785</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>5127787</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>5127786</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>5127801</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>5127802</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>5127804</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>5127797</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>5128149</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5127824</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>5128203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>5128204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5128205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>5128206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>5128323</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5128324</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>5128325</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>5128326</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>5127821</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>5127822</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>5127823</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>5128255</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>5128256</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>5128257</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>5128258</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>5128150</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>5128151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>5128152</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>5126729</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>5126730</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>5131494</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>4597953</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>5131495</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>5131496</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>5131497</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>5131509</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>5131542</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>5131543</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>5131544</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>5131545</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>5131566</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>5131567</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>5131568</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>5131569</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>5131470</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>4597962</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4597963</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>4597964</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>4597965</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>5131482</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>5131483</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>5131484</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>5131485</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>5131602</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>5131603</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>5131604</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>5131605</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>5131554</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>5131555</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>5131556</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>5131557</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>5131578</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>5131579</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>5131580</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>5131581</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>5131670</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>5131671</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>5131672</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>5131673</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>5131694</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>5131695</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>5131696</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>5131697</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>5131706</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>5131707</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>5131708</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>5131709</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>5131730</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>5131731</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>5131732</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>5131733</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>5126715</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>5126718</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>5131614</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>5131615</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>5131616</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>5131617</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>5131518</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>5131519</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>5131520</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>5131521</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>5131530</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>5131531</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>5131532</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>5131533</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>5131590</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>5131591</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>5131592</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>5131593</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>5131626</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>5131627</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>5131628</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>5131629</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>5131682</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>5131683</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>5131684</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>5131685</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>5131718</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>5131719</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>5131720</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>5131721</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>5131471</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>5131472</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>5131473</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>5131506</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>5131507</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>5131508</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>5134054</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>5134055</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>5134056</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>5126703</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>5134053</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>5126704</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>5126705</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>5126706</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>